--- a/data/trans_dic/CoPsoQ_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.2024841486581893</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3378912087394356</v>
+        <v>0.3378912087394357</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2053218668979786</v>
@@ -664,7 +664,7 @@
         <v>0.2036753418095954</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.3811461176121338</v>
+        <v>0.3811461176121337</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1405713665579078</v>
+        <v>0.1415095141075563</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1582569837728065</v>
+        <v>0.1567000583168591</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2255061970533579</v>
+        <v>0.2294626789697754</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1483146155042888</v>
+        <v>0.1491264392791694</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1527046177218876</v>
+        <v>0.1500871238467733</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3343499096736282</v>
+        <v>0.3359866222624286</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1538838245518327</v>
+        <v>0.1552496206988961</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1695847083098961</v>
+        <v>0.1689631902366555</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3039253426190617</v>
+        <v>0.308452214932771</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2317187297940792</v>
+        <v>0.2394858041172721</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2576205404987551</v>
+        <v>0.2569709971589716</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4551196870164703</v>
+        <v>0.4662007981027514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2715062129036871</v>
+        <v>0.2694205111098671</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2636890107126654</v>
+        <v>0.2682111096293816</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5329998710813847</v>
+        <v>0.5312787732392381</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2291479016278247</v>
+        <v>0.2308520760972006</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2436450125716011</v>
+        <v>0.2411034444012182</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4587134509782612</v>
+        <v>0.4575689908958743</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.1945651509957524</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3766661633846464</v>
+        <v>0.3766661633846465</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.2080429070683046</v>
@@ -764,7 +764,7 @@
         <v>0.2404436790154046</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.3970467406539677</v>
+        <v>0.3970467406539675</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.1745482411388156</v>
@@ -773,7 +773,7 @@
         <v>0.2146365210876005</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.3864506155901003</v>
+        <v>0.3864506155901002</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1062701377368905</v>
+        <v>0.1075228508405881</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1444165585122449</v>
+        <v>0.1455133560082875</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2625363859812903</v>
+        <v>0.2632383065894474</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1498035149221273</v>
+        <v>0.1501391505226235</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1857105589742123</v>
+        <v>0.1821117857734061</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2927562447776385</v>
+        <v>0.2957227242257184</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1379460457986759</v>
+        <v>0.1396799760048027</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1744077202764828</v>
+        <v>0.1752342308596631</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3047667161226703</v>
+        <v>0.3064930600934874</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.211374745213881</v>
+        <v>0.2140313258364313</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2558187508611371</v>
+        <v>0.2510214708771746</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5016862038790758</v>
+        <v>0.5023869786559069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2764122581381003</v>
+        <v>0.2784158443494201</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3084630915817289</v>
+        <v>0.3070984905228099</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5085624538794601</v>
+        <v>0.520318523329014</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2220755434295408</v>
+        <v>0.2198918770215197</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.253366041852412</v>
+        <v>0.2571901317012809</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4792736740150547</v>
+        <v>0.4725678803371207</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1790043297446247</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3291434734831587</v>
+        <v>0.3291434734831585</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.2130756064767109</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2274075867418909</v>
+        <v>0.2295771635109644</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.132361599043086</v>
+        <v>0.1320070372320452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1977060188746771</v>
+        <v>0.20418525296564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1374905806992569</v>
+        <v>0.1416674730900051</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1704253148261443</v>
+        <v>0.1665770624253794</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07460116290646221</v>
+        <v>0.07102031127435526</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2145689144646682</v>
+        <v>0.2137283642388585</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1526387479574577</v>
+        <v>0.14896381611</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1929770303871284</v>
+        <v>0.1831687828122855</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3374838590326656</v>
+        <v>0.3327195265050616</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2399019891332288</v>
+        <v>0.2424885467549179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4620213865655526</v>
+        <v>0.4650157571035359</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2948378723135268</v>
+        <v>0.2997480984529068</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3840814407261108</v>
+        <v>0.3732339132803424</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3662346148248729</v>
+        <v>0.3589569437198496</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3053719664342232</v>
+        <v>0.3027776784925823</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2510493188503284</v>
+        <v>0.2448043253901118</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3983759849261166</v>
+        <v>0.3884280757322818</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.2416840641253384</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2998940223237658</v>
+        <v>0.2998940223237657</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.251423848990645</v>
@@ -991,7 +991,7 @@
         <v>0.2112749543790303</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.2522648648135669</v>
+        <v>0.252264864813567</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.212915494219106</v>
+        <v>0.215735865910604</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2079968764456626</v>
+        <v>0.2051633696690671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2136391676384508</v>
+        <v>0.2170676283237309</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1962504142249706</v>
+        <v>0.2005504070318775</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1350882101917753</v>
+        <v>0.134273647300083</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1329963461301085</v>
+        <v>0.1369232938686895</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2200349119334939</v>
+        <v>0.2191805102009762</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1856327420837194</v>
+        <v>0.1852285534559785</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1972738575375486</v>
+        <v>0.2015299709911535</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3037034813338053</v>
+        <v>0.3069523355298546</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2855733309626273</v>
+        <v>0.2827716703647991</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3974485278369738</v>
+        <v>0.3982208009146201</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3034501732847864</v>
+        <v>0.301706043785697</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2082466521412932</v>
+        <v>0.2098820727212447</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2736910347722121</v>
+        <v>0.2643891735466056</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2889960205639796</v>
+        <v>0.2881388067917356</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2432170688262101</v>
+        <v>0.2419247643228031</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3136340919502816</v>
+        <v>0.3185365805941237</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1888064669432926</v>
+        <v>0.1842424328958626</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2407912123140347</v>
+        <v>0.2356290514182774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1826111592077371</v>
+        <v>0.1809649757982214</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2150365274102772</v>
+        <v>0.2136746651099798</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.285078978410118</v>
+        <v>0.2809511524924775</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.173521550781622</v>
+        <v>0.1665122332234119</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2205892317487662</v>
+        <v>0.2221411513415597</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2769311800970485</v>
+        <v>0.2776833346582608</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2022646685102757</v>
+        <v>0.2018919355327703</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.334258667840821</v>
+        <v>0.3286053713941763</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3740627668734146</v>
+        <v>0.3727954773103546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4322083776471995</v>
+        <v>0.4373365772571699</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3624343786010995</v>
+        <v>0.3590944150595068</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4116404340714268</v>
+        <v>0.4184154187825408</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3421243186508045</v>
+        <v>0.3288874576889175</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3245517556148861</v>
+        <v>0.3213356081458998</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3758035981493867</v>
+        <v>0.3749544870207694</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3649224739702022</v>
+        <v>0.3642594351512578</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.2243470831389898</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.3247553375696394</v>
+        <v>0.3247553375696395</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.2355693194964588</v>
@@ -1200,7 +1200,7 @@
         <v>0.230426595408816</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.2938891939690481</v>
+        <v>0.293889193969048</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.2291672480465452</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2720658630437044</v>
+        <v>0.2734822844442138</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2045573264901488</v>
+        <v>0.2039663551599668</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2488458457396287</v>
+        <v>0.2537347954636941</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2091109356938454</v>
+        <v>0.2100221947772792</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2765467990612482</v>
+        <v>0.2772754178283534</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3773908632123224</v>
+        <v>0.377777457490332</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2571823407223648</v>
+        <v>0.2586491203681185</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3374745145092732</v>
+        <v>0.338578231050128</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2429409795099508</v>
+        <v>0.244372498035886</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3464938961049172</v>
+        <v>0.344072290496416</v>
       </c>
     </row>
     <row r="22">
@@ -1509,31 +1509,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42152</v>
+        <v>42434</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43687</v>
+        <v>43258</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22191</v>
+        <v>22580</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>27916</v>
+        <v>28068</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>32705</v>
+        <v>32145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28296</v>
+        <v>28435</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>75108</v>
+        <v>75775</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>83135</v>
+        <v>82830</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>55629</v>
+        <v>56458</v>
       </c>
     </row>
     <row r="7">
@@ -1544,31 +1544,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>69484</v>
+        <v>71813</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>71117</v>
+        <v>70938</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44786</v>
+        <v>45876</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>51103</v>
+        <v>50710</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>56475</v>
+        <v>57444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45108</v>
+        <v>44962</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>111843</v>
+        <v>112675</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>119441</v>
+        <v>118195</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>83961</v>
+        <v>83751</v>
       </c>
     </row>
     <row r="8">
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>26930</v>
+        <v>27248</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>35127</v>
+        <v>35394</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19004</v>
+        <v>19055</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24709</v>
+        <v>24764</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>35132</v>
+        <v>34451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19568</v>
+        <v>19766</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>57711</v>
+        <v>58436</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>75416</v>
+        <v>75774</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>42432</v>
+        <v>42672</v>
       </c>
     </row>
     <row r="11">
@@ -1688,31 +1688,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>53565</v>
+        <v>54239</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>62225</v>
+        <v>61058</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36315</v>
+        <v>36366</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45592</v>
+        <v>45923</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>58354</v>
+        <v>58096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>33993</v>
+        <v>34779</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>92907</v>
+        <v>91993</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>109559</v>
+        <v>111212</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>66728</v>
+        <v>65795</v>
       </c>
     </row>
     <row r="12">
@@ -1797,31 +1797,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>62259</v>
+        <v>62853</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28633</v>
+        <v>28556</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13705</v>
+        <v>14154</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14641</v>
+        <v>15085</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11098</v>
+        <v>10847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2084</v>
+        <v>1984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>81593</v>
+        <v>81273</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42959</v>
+        <v>41925</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18767</v>
+        <v>17813</v>
       </c>
     </row>
     <row r="15">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>92396</v>
+        <v>91091</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51897</v>
+        <v>52456</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32026</v>
+        <v>32234</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31396</v>
+        <v>31919</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25011</v>
+        <v>24304</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10229</v>
+        <v>10026</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>116122</v>
+        <v>115135</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>70656</v>
+        <v>68898</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>38742</v>
+        <v>37774</v>
       </c>
     </row>
     <row r="16">
@@ -1941,31 +1941,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>87920</v>
+        <v>89085</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>101440</v>
+        <v>100058</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28587</v>
+        <v>29045</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>57852</v>
+        <v>59119</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49299</v>
+        <v>49002</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15019</v>
+        <v>15462</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>155723</v>
+        <v>155119</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>158278</v>
+        <v>157934</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>48674</v>
+        <v>49724</v>
       </c>
     </row>
     <row r="19">
@@ -1976,31 +1976,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>125410</v>
+        <v>126752</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>139274</v>
+        <v>137908</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>53182</v>
+        <v>53285</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>89453</v>
+        <v>88938</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>75998</v>
+        <v>76595</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>30907</v>
+        <v>29857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>204529</v>
+        <v>203922</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>207377</v>
+        <v>206275</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>77385</v>
+        <v>78594</v>
       </c>
     </row>
     <row r="20">
@@ -2085,31 +2085,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>28288</v>
+        <v>27605</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>46478</v>
+        <v>45482</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>16872</v>
+        <v>16720</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>36882</v>
+        <v>36648</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>56337</v>
+        <v>55521</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14896</v>
+        <v>14295</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>70885</v>
+        <v>71383</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>108180</v>
+        <v>108474</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>36052</v>
+        <v>35986</v>
       </c>
     </row>
     <row r="23">
@@ -2120,31 +2120,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>50081</v>
+        <v>49234</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>72202</v>
+        <v>71958</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>39934</v>
+        <v>40408</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>62163</v>
+        <v>61590</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>81348</v>
+        <v>82687</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29370</v>
+        <v>28234</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>104292</v>
+        <v>103259</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>146804</v>
+        <v>146472</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>65045</v>
+        <v>64926</v>
       </c>
     </row>
     <row r="24">
@@ -2229,31 +2229,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>126867</v>
+        <v>127528</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>210905</v>
+        <v>210295</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>94108</v>
+        <v>95957</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>511771</v>
+        <v>514001</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>233540</v>
+        <v>234156</v>
       </c>
     </row>
     <row r="27">
@@ -2264,31 +2264,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>175982</v>
+        <v>176162</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>265162</v>
+        <v>266675</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>127625</v>
+        <v>128042</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>594565</v>
+        <v>598069</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>292610</v>
+        <v>290565</v>
       </c>
     </row>
     <row r="28">
